--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.917322666666665</v>
+        <v>9.473419</v>
       </c>
       <c r="H2">
-        <v>29.751968</v>
+        <v>28.420257</v>
       </c>
       <c r="I2">
-        <v>0.4771592481571083</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="J2">
-        <v>0.4771592481571084</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.158769666666667</v>
+        <v>2.302714666666666</v>
       </c>
       <c r="N2">
-        <v>6.476309000000001</v>
+        <v>6.908143999999999</v>
       </c>
       <c r="O2">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="P2">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="Q2">
-        <v>21.40921534734577</v>
+        <v>21.81458087477866</v>
       </c>
       <c r="R2">
-        <v>192.682938126112</v>
+        <v>196.331227873008</v>
       </c>
       <c r="S2">
-        <v>0.05140614560452323</v>
+        <v>0.05907676875269462</v>
       </c>
       <c r="T2">
-        <v>0.05140614560452324</v>
+        <v>0.05907676875269461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.917322666666665</v>
+        <v>9.473419</v>
       </c>
       <c r="H3">
-        <v>29.751968</v>
+        <v>28.420257</v>
       </c>
       <c r="I3">
-        <v>0.4771592481571083</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="J3">
-        <v>0.4771592481571084</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>15.320121</v>
       </c>
       <c r="O3">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="P3">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="Q3">
-        <v>50.64486108312533</v>
+        <v>48.377975121233</v>
       </c>
       <c r="R3">
-        <v>455.803749748128</v>
+        <v>435.401776091097</v>
       </c>
       <c r="S3">
-        <v>0.1216045081858994</v>
+        <v>0.1310139518777114</v>
       </c>
       <c r="T3">
-        <v>0.1216045081858994</v>
+        <v>0.1310139518777114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.917322666666665</v>
+        <v>9.473419</v>
       </c>
       <c r="H4">
-        <v>29.751968</v>
+        <v>28.420257</v>
       </c>
       <c r="I4">
-        <v>0.4771592481571083</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="J4">
-        <v>0.4771592481571084</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.336732333333333</v>
+        <v>4.286508666666667</v>
       </c>
       <c r="N4">
-        <v>16.010197</v>
+        <v>12.859526</v>
       </c>
       <c r="O4">
-        <v>0.2663304423444689</v>
+        <v>0.2566125720330159</v>
       </c>
       <c r="P4">
-        <v>0.2663304423444688</v>
+        <v>0.2566125720330158</v>
       </c>
       <c r="Q4">
-        <v>52.92609653529954</v>
+        <v>40.60789264646467</v>
       </c>
       <c r="R4">
-        <v>476.3348688176959</v>
+        <v>365.471033818182</v>
       </c>
       <c r="S4">
-        <v>0.1270820336304369</v>
+        <v>0.1099715413823545</v>
       </c>
       <c r="T4">
-        <v>0.1270820336304369</v>
+        <v>0.1099715413823545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.917322666666665</v>
+        <v>9.473419</v>
       </c>
       <c r="H5">
-        <v>29.751968</v>
+        <v>28.420257</v>
       </c>
       <c r="I5">
-        <v>0.4771592481571083</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="J5">
-        <v>0.4771592481571084</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.437803</v>
+        <v>2.214334666666666</v>
       </c>
       <c r="N5">
-        <v>7.313409</v>
+        <v>6.643003999999999</v>
       </c>
       <c r="O5">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="P5">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="Q5">
-        <v>24.176478948768</v>
+        <v>20.97732010355866</v>
       </c>
       <c r="R5">
-        <v>217.588310538912</v>
+        <v>188.795880932028</v>
       </c>
       <c r="S5">
-        <v>0.05805068410408316</v>
+        <v>0.05680935590387596</v>
       </c>
       <c r="T5">
-        <v>0.05805068410408316</v>
+        <v>0.05680935590387596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.917322666666665</v>
+        <v>9.473419</v>
       </c>
       <c r="H6">
-        <v>29.751968</v>
+        <v>28.420257</v>
       </c>
       <c r="I6">
-        <v>0.4771592481571083</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="J6">
-        <v>0.4771592481571084</v>
+        <v>0.4285508714990221</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.997999</v>
+        <v>2.793938666666667</v>
       </c>
       <c r="N6">
-        <v>14.993997</v>
+        <v>8.381816000000001</v>
       </c>
       <c r="O6">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509162</v>
       </c>
       <c r="P6">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509161</v>
       </c>
       <c r="Q6">
-        <v>49.56676877067733</v>
+        <v>26.46815164963467</v>
       </c>
       <c r="R6">
-        <v>446.100918936096</v>
+        <v>238.213364846712</v>
       </c>
       <c r="S6">
-        <v>0.1190158766321657</v>
+        <v>0.07167925358238564</v>
       </c>
       <c r="T6">
-        <v>0.1190158766321657</v>
+        <v>0.07167925358238564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.932782</v>
       </c>
       <c r="I7">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="J7">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.158769666666667</v>
+        <v>2.302714666666666</v>
       </c>
       <c r="N7">
-        <v>6.476309000000001</v>
+        <v>6.908143999999999</v>
       </c>
       <c r="O7">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="P7">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="Q7">
-        <v>7.147529495737555</v>
+        <v>7.624120930734221</v>
       </c>
       <c r="R7">
-        <v>64.32776546163801</v>
+        <v>68.617088376608</v>
       </c>
       <c r="S7">
-        <v>0.0171620928655875</v>
+        <v>0.02064712733895853</v>
       </c>
       <c r="T7">
-        <v>0.0171620928655875</v>
+        <v>0.02064712733895853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.932782</v>
       </c>
       <c r="I8">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="J8">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>15.320121</v>
       </c>
       <c r="O8">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="P8">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="Q8">
         <v>16.90793578962467</v>
@@ -948,10 +948,10 @@
         <v>152.171422106622</v>
       </c>
       <c r="S8">
-        <v>0.04059802262585636</v>
+        <v>0.04578892523596102</v>
       </c>
       <c r="T8">
-        <v>0.04059802262585636</v>
+        <v>0.04578892523596102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.932782</v>
       </c>
       <c r="I9">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="J9">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.336732333333333</v>
+        <v>4.286508666666667</v>
       </c>
       <c r="N9">
-        <v>16.010197</v>
+        <v>12.859526</v>
       </c>
       <c r="O9">
-        <v>0.2663304423444689</v>
+        <v>0.2566125720330159</v>
       </c>
       <c r="P9">
-        <v>0.2663304423444688</v>
+        <v>0.2566125720330158</v>
       </c>
       <c r="Q9">
-        <v>17.66953295311711</v>
+        <v>14.19231870903689</v>
       </c>
       <c r="R9">
-        <v>159.025796578054</v>
+        <v>127.730868381332</v>
       </c>
       <c r="S9">
-        <v>0.04242671060172551</v>
+        <v>0.03843467519505211</v>
       </c>
       <c r="T9">
-        <v>0.0424267106017255</v>
+        <v>0.0384346751950521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.932782</v>
       </c>
       <c r="I10">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="J10">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.437803</v>
+        <v>2.214334666666666</v>
       </c>
       <c r="N10">
-        <v>7.313409</v>
+        <v>6.643003999999999</v>
       </c>
       <c r="O10">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="P10">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="Q10">
-        <v>8.071388585982001</v>
+        <v>7.331501173014221</v>
       </c>
       <c r="R10">
-        <v>72.642497273838</v>
+        <v>65.98351055712799</v>
       </c>
       <c r="S10">
-        <v>0.01938039158138122</v>
+        <v>0.01985467435264969</v>
       </c>
       <c r="T10">
-        <v>0.01938039158138121</v>
+        <v>0.01985467435264969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.932782</v>
       </c>
       <c r="I11">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="J11">
-        <v>0.1593010180445361</v>
+        <v>0.1497770545322584</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.997999</v>
+        <v>2.793938666666667</v>
       </c>
       <c r="N11">
-        <v>14.993997</v>
+        <v>8.381816000000001</v>
       </c>
       <c r="O11">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509162</v>
       </c>
       <c r="P11">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509161</v>
       </c>
       <c r="Q11">
-        <v>16.54801150107267</v>
+        <v>9.250527899123556</v>
       </c>
       <c r="R11">
-        <v>148.932103509654</v>
+        <v>83.254751092112</v>
       </c>
       <c r="S11">
-        <v>0.03973380036998549</v>
+        <v>0.0250516524096371</v>
       </c>
       <c r="T11">
-        <v>0.03973380036998549</v>
+        <v>0.02505165240963709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.368841333333333</v>
+        <v>5.214334666666667</v>
       </c>
       <c r="H12">
-        <v>4.106524</v>
+        <v>15.643004</v>
       </c>
       <c r="I12">
-        <v>0.06586004342230811</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="J12">
-        <v>0.06586004342230813</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.158769666666667</v>
+        <v>2.302714666666666</v>
       </c>
       <c r="N12">
-        <v>6.476309000000001</v>
+        <v>6.908143999999999</v>
       </c>
       <c r="O12">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="P12">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="Q12">
-        <v>2.955013148879555</v>
+        <v>12.00712491384178</v>
       </c>
       <c r="R12">
-        <v>26.59511833991601</v>
+        <v>108.064124224576</v>
       </c>
       <c r="S12">
-        <v>0.007095348135372732</v>
+        <v>0.03251688152944841</v>
       </c>
       <c r="T12">
-        <v>0.007095348135372733</v>
+        <v>0.03251688152944841</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.368841333333333</v>
+        <v>5.214334666666667</v>
       </c>
       <c r="H13">
-        <v>4.106524</v>
+        <v>15.643004</v>
       </c>
       <c r="I13">
-        <v>0.06586004342230811</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="J13">
-        <v>0.06586004342230813</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>15.320121</v>
       </c>
       <c r="O13">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="P13">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="Q13">
-        <v>6.990271618822667</v>
+        <v>26.62807934260934</v>
       </c>
       <c r="R13">
-        <v>62.91244456940401</v>
+        <v>239.652714083484</v>
       </c>
       <c r="S13">
-        <v>0.0167844974615996</v>
+        <v>0.07211235891634783</v>
       </c>
       <c r="T13">
-        <v>0.0167844974615996</v>
+        <v>0.07211235891634782</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.368841333333333</v>
+        <v>5.214334666666667</v>
       </c>
       <c r="H14">
-        <v>4.106524</v>
+        <v>15.643004</v>
       </c>
       <c r="I14">
-        <v>0.06586004342230811</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="J14">
-        <v>0.06586004342230813</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.336732333333333</v>
+        <v>4.286508666666667</v>
       </c>
       <c r="N14">
-        <v>16.010197</v>
+        <v>12.859526</v>
       </c>
       <c r="O14">
-        <v>0.2663304423444689</v>
+        <v>0.2566125720330159</v>
       </c>
       <c r="P14">
-        <v>0.2663304423444688</v>
+        <v>0.2566125720330158</v>
       </c>
       <c r="Q14">
-        <v>7.305139802803111</v>
+        <v>22.35129073956712</v>
       </c>
       <c r="R14">
-        <v>65.74625822522799</v>
+        <v>201.161616656104</v>
       </c>
       <c r="S14">
-        <v>0.01754053449748925</v>
+        <v>0.06053025001604797</v>
       </c>
       <c r="T14">
-        <v>0.01754053449748925</v>
+        <v>0.06053025001604796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.368841333333333</v>
+        <v>5.214334666666667</v>
       </c>
       <c r="H15">
-        <v>4.106524</v>
+        <v>15.643004</v>
       </c>
       <c r="I15">
-        <v>0.06586004342230811</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="J15">
-        <v>0.06586004342230813</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.437803</v>
+        <v>2.214334666666666</v>
       </c>
       <c r="N15">
-        <v>7.313409</v>
+        <v>6.643003999999999</v>
       </c>
       <c r="O15">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="P15">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="Q15">
-        <v>3.336965508924</v>
+        <v>11.54628201600178</v>
       </c>
       <c r="R15">
-        <v>30.032689580316</v>
+        <v>103.916538144016</v>
       </c>
       <c r="S15">
-        <v>0.008012462486173554</v>
+        <v>0.03126885804170439</v>
       </c>
       <c r="T15">
-        <v>0.008012462486173554</v>
+        <v>0.03126885804170439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.368841333333333</v>
+        <v>5.214334666666667</v>
       </c>
       <c r="H16">
-        <v>4.106524</v>
+        <v>15.643004</v>
       </c>
       <c r="I16">
-        <v>0.06586004342230811</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="J16">
-        <v>0.06586004342230813</v>
+        <v>0.2358818569818946</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.997999</v>
+        <v>2.793938666666667</v>
       </c>
       <c r="N16">
-        <v>14.993997</v>
+        <v>8.381816000000001</v>
       </c>
       <c r="O16">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509162</v>
       </c>
       <c r="P16">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509161</v>
       </c>
       <c r="Q16">
-        <v>6.841467615158667</v>
+        <v>14.56853124614045</v>
       </c>
       <c r="R16">
-        <v>61.57320853642801</v>
+        <v>131.116781215264</v>
       </c>
       <c r="S16">
-        <v>0.01642720084167299</v>
+        <v>0.03945350847834603</v>
       </c>
       <c r="T16">
-        <v>0.01642720084167299</v>
+        <v>0.03945350847834602</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7831763333333334</v>
+        <v>0.4724623333333334</v>
       </c>
       <c r="H17">
-        <v>2.349529</v>
+        <v>1.417387</v>
       </c>
       <c r="I17">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="J17">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.158769666666667</v>
+        <v>2.302714666666666</v>
       </c>
       <c r="N17">
-        <v>6.476309000000001</v>
+        <v>6.908143999999999</v>
       </c>
       <c r="O17">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="P17">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="Q17">
-        <v>1.690697312051222</v>
+        <v>1.087945944414222</v>
       </c>
       <c r="R17">
-        <v>15.216275808461</v>
+        <v>9.791513499728</v>
       </c>
       <c r="S17">
-        <v>0.004059571113952862</v>
+        <v>0.002946301436756028</v>
       </c>
       <c r="T17">
-        <v>0.004059571113952862</v>
+        <v>0.002946301436756028</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7831763333333334</v>
+        <v>0.4724623333333334</v>
       </c>
       <c r="H18">
-        <v>2.349529</v>
+        <v>1.417387</v>
       </c>
       <c r="I18">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="J18">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>15.320121</v>
       </c>
       <c r="O18">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="P18">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="Q18">
-        <v>3.999452063667667</v>
+        <v>2.412726704869667</v>
       </c>
       <c r="R18">
-        <v>35.995068573009</v>
+        <v>21.714540343827</v>
       </c>
       <c r="S18">
-        <v>0.009603173763614834</v>
+        <v>0.006533982863353197</v>
       </c>
       <c r="T18">
-        <v>0.009603173763614834</v>
+        <v>0.006533982863353196</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7831763333333334</v>
+        <v>0.4724623333333334</v>
       </c>
       <c r="H19">
-        <v>2.349529</v>
+        <v>1.417387</v>
       </c>
       <c r="I19">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="J19">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.336732333333333</v>
+        <v>4.286508666666667</v>
       </c>
       <c r="N19">
-        <v>16.010197</v>
+        <v>12.859526</v>
       </c>
       <c r="O19">
-        <v>0.2663304423444689</v>
+        <v>0.2566125720330159</v>
       </c>
       <c r="P19">
-        <v>0.2663304423444688</v>
+        <v>0.2566125720330158</v>
       </c>
       <c r="Q19">
-        <v>4.179602460801444</v>
+        <v>2.025213886506889</v>
       </c>
       <c r="R19">
-        <v>37.61642214721299</v>
+        <v>18.226924978562</v>
       </c>
       <c r="S19">
-        <v>0.01003573690969575</v>
+        <v>0.00548454692458662</v>
       </c>
       <c r="T19">
-        <v>0.01003573690969574</v>
+        <v>0.005484546924586618</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7831763333333334</v>
+        <v>0.4724623333333334</v>
       </c>
       <c r="H20">
-        <v>2.349529</v>
+        <v>1.417387</v>
       </c>
       <c r="I20">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="J20">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.437803</v>
+        <v>2.214334666666666</v>
       </c>
       <c r="N20">
-        <v>7.313409</v>
+        <v>6.643003999999999</v>
       </c>
       <c r="O20">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="P20">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="Q20">
-        <v>1.909229614929</v>
+        <v>1.046189723394222</v>
       </c>
       <c r="R20">
-        <v>17.183066534361</v>
+        <v>9.415707510548</v>
       </c>
       <c r="S20">
-        <v>0.004584293911998777</v>
+        <v>0.002833220070336698</v>
       </c>
       <c r="T20">
-        <v>0.004584293911998776</v>
+        <v>0.002833220070336698</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7831763333333334</v>
+        <v>0.4724623333333334</v>
       </c>
       <c r="H21">
-        <v>2.349529</v>
+        <v>1.417387</v>
       </c>
       <c r="I21">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="J21">
-        <v>0.03768152382939249</v>
+        <v>0.02137286915109123</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.997999</v>
+        <v>2.793938666666667</v>
       </c>
       <c r="N21">
-        <v>14.993997</v>
+        <v>8.381816000000001</v>
       </c>
       <c r="O21">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509162</v>
       </c>
       <c r="P21">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509161</v>
       </c>
       <c r="Q21">
-        <v>3.914314530823667</v>
+        <v>1.320030781643556</v>
       </c>
       <c r="R21">
-        <v>35.228830777413</v>
+        <v>11.880277034792</v>
       </c>
       <c r="S21">
-        <v>0.009398748130130273</v>
+        <v>0.003574817856058685</v>
       </c>
       <c r="T21">
-        <v>0.009398748130130271</v>
+        <v>0.003574817856058685</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.403826333333334</v>
+        <v>3.634561333333334</v>
       </c>
       <c r="H22">
-        <v>16.211479</v>
+        <v>10.903684</v>
       </c>
       <c r="I22">
-        <v>0.259998166546655</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="J22">
-        <v>0.2599981665466551</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.158769666666667</v>
+        <v>2.302714666666666</v>
       </c>
       <c r="N22">
-        <v>6.476309000000001</v>
+        <v>6.908143999999999</v>
       </c>
       <c r="O22">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="P22">
-        <v>0.1077337299927955</v>
+        <v>0.137852406054037</v>
       </c>
       <c r="Q22">
-        <v>11.66561637233456</v>
+        <v>8.369357689166222</v>
       </c>
       <c r="R22">
-        <v>104.990547351011</v>
+        <v>75.32421920249601</v>
       </c>
       <c r="S22">
-        <v>0.02801057227335922</v>
+        <v>0.02266532699617939</v>
       </c>
       <c r="T22">
-        <v>0.02801057227335923</v>
+        <v>0.02266532699617939</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.403826333333334</v>
+        <v>3.634561333333334</v>
       </c>
       <c r="H23">
-        <v>16.211479</v>
+        <v>10.903684</v>
       </c>
       <c r="I23">
-        <v>0.259998166546655</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="J23">
-        <v>0.2599981665466551</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>15.320121</v>
       </c>
       <c r="O23">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="P23">
-        <v>0.2548509929453577</v>
+        <v>0.3057138850737592</v>
       </c>
       <c r="Q23">
-        <v>27.59575776321767</v>
+        <v>18.56063980286267</v>
       </c>
       <c r="R23">
-        <v>248.361819868959</v>
+        <v>167.045758225764</v>
       </c>
       <c r="S23">
-        <v>0.06626079090838753</v>
+        <v>0.05026466618038577</v>
       </c>
       <c r="T23">
-        <v>0.06626079090838755</v>
+        <v>0.05026466618038576</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.403826333333334</v>
+        <v>3.634561333333334</v>
       </c>
       <c r="H24">
-        <v>16.211479</v>
+        <v>10.903684</v>
       </c>
       <c r="I24">
-        <v>0.259998166546655</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="J24">
-        <v>0.2599981665466551</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.336732333333333</v>
+        <v>4.286508666666667</v>
       </c>
       <c r="N24">
-        <v>16.010197</v>
+        <v>12.859526</v>
       </c>
       <c r="O24">
-        <v>0.2663304423444689</v>
+        <v>0.2566125720330159</v>
       </c>
       <c r="P24">
-        <v>0.2663304423444688</v>
+        <v>0.2566125720330158</v>
       </c>
       <c r="Q24">
-        <v>28.83877471681811</v>
+        <v>15.57957865486489</v>
       </c>
       <c r="R24">
-        <v>259.548972451363</v>
+        <v>140.216207893784</v>
       </c>
       <c r="S24">
-        <v>0.06924542670512153</v>
+        <v>0.04219155851497462</v>
       </c>
       <c r="T24">
-        <v>0.06924542670512153</v>
+        <v>0.04219155851497462</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.403826333333334</v>
+        <v>3.634561333333334</v>
       </c>
       <c r="H25">
-        <v>16.211479</v>
+        <v>10.903684</v>
       </c>
       <c r="I25">
-        <v>0.259998166546655</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="J25">
-        <v>0.2599981665466551</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.437803</v>
+        <v>2.214334666666666</v>
       </c>
       <c r="N25">
-        <v>7.313409</v>
+        <v>6.643003999999999</v>
       </c>
       <c r="O25">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="P25">
-        <v>0.1216589311184628</v>
+        <v>0.1325615222882719</v>
       </c>
       <c r="Q25">
-        <v>13.173464046879</v>
+        <v>8.048135158526222</v>
       </c>
       <c r="R25">
-        <v>118.561176421911</v>
+        <v>72.43321642673601</v>
       </c>
       <c r="S25">
-        <v>0.03163109903482613</v>
+        <v>0.02179541391970516</v>
       </c>
       <c r="T25">
-        <v>0.03163109903482613</v>
+        <v>0.02179541391970516</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.403826333333334</v>
+        <v>3.634561333333334</v>
       </c>
       <c r="H26">
-        <v>16.211479</v>
+        <v>10.903684</v>
       </c>
       <c r="I26">
-        <v>0.259998166546655</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="J26">
-        <v>0.2599981665466551</v>
+        <v>0.1644173478357336</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.997999</v>
+        <v>2.793938666666667</v>
       </c>
       <c r="N26">
-        <v>14.993997</v>
+        <v>8.381816000000001</v>
       </c>
       <c r="O26">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509162</v>
       </c>
       <c r="P26">
-        <v>0.2494259035989151</v>
+        <v>0.1672596145509161</v>
       </c>
       <c r="Q26">
-        <v>27.00831861017367</v>
+        <v>10.15474144557156</v>
       </c>
       <c r="R26">
-        <v>243.074867491563</v>
+        <v>91.39267301014402</v>
       </c>
       <c r="S26">
-        <v>0.06485027762496065</v>
+        <v>0.02750038222448872</v>
       </c>
       <c r="T26">
-        <v>0.06485027762496066</v>
+        <v>0.02750038222448872</v>
       </c>
     </row>
   </sheetData>
